--- a/pred_ohlcv/54_21/2020-01-16 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>82481.65204237806</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>81041.64734237806</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>78948.90874237806</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>78343.97883294054</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>77479.88703294055</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -626,7 +626,7 @@
         <v>74082.21723294054</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>69516.38783294054</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>70311.40533294054</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>72350.44453294054</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>73371.14203294054</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>70889.41133294054</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>48391.21808363418</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>50626.39278363418</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>50626.39278363418</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>48289.69218363418</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>48640.47768363418</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>49317.42008363418</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>50371.86118363417</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>54666.71508363418</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>55161.03978363417</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>56897.94198363417</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>150681.9206745131</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>152197.2065745131</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>152197.2065745131</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>152566.3261745131</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>156580.6624745131</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>156580.6624745131</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>161804.344374513</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>162712.1226334836</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>162712.1226334836</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>162311.8600694601</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>158828.6159694601</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>157222.5375136333</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>156376.2204206385</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>161541.1653206385</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>163667.0183206385</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>163667.0183206385</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>167084.3661762919</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>161979.7554762919</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>161822.7898762919</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>162083.1910762919</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>162083.1910762919</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>160686.3933762919</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>160319.0779762919</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>160492.5450762919</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>159522.6946762919</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>155211.5590620062</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>158258.9153620062</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>158258.9153620062</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>158309.9153620062</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>153585.5832620062</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>151320.6996620062</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>151320.6996620062</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>152084.0976620062</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>152261.2142046913</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>152470.3351046913</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>152148.1908046913</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>153971.6078046912</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>153971.6078046912</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>156093.5374046912</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>158912.068639552</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>152038.694439552</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>153355.294439552</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>153355.294439552</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>152356.516439552</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>158754.587284619</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>154861.0913956126</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>150242.0020956126</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>150932.2996956126</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>152053.2183219247</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>151228.9178219247</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>146599.8326219247</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>146105.9490219247</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>123017.2862219247</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>122166.4772219247</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>138310.0709375397</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>139063.7233375397</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>138799.9527375397</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>138799.9527375397</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>138622.8390375397</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>138886.3209375397</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>138877.2125375397</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>138085.6926375397</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>139034.0260375397</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>138854.2610375397</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>138995.0651375397</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 LINK ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>82481.65204237806</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>81041.64734237806</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>78948.90874237806</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>78343.97883294054</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>77479.88703294055</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>71080.72743294055</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>76162.43843294054</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>74082.21723294054</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>69516.38783294054</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>70311.40533294054</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>72350.44453294054</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>73371.14203294054</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>70889.41133294054</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>70889.41133294054</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>72738.51013294054</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>70090.99770408738</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>69982.91010408738</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>70103.94270408739</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>70060.37200408739</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>70060.0817040874</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>70060.0817040874</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>70704.01600408739</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>70272.09570408739</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>70292.98710408738</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>70211.13400408739</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>70211.13400408739</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>69920.2285040874</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>69935.23300408739</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>68935.23300408739</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>69759.7870040874</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>70739.01030408739</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>70779.81500408739</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>70555.78540408739</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>70630.78540408739</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>71674.89510408739</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>74169.9834040874</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>74169.9834040874</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>67039.45365378686</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>67923.44565378685</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>65159.09725378685</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>63490.02705378685</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>60704.05985378685</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>58980.24895378685</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>58828.81555378685</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>58828.81555378685</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>57520.70825378685</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>57338.98075378685</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>55738.70958363418</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>52980.94228363418</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>50830.29398363418</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>49996.46468363418</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>56209.75978363417</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>54409.76298363417</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>54409.76298363417</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>69113.97128363416</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>73136.86068363416</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>72634.06218363416</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>74002.30288363415</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>83507.04598363416</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>83507.04598363416</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>83507.04598363416</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>82817.30848363416</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>84555.15288363416</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>127504.1681836342</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>150681.9206745131</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>152197.2065745131</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>152197.2065745131</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>152566.3261745131</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>156580.6624745131</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>156580.6624745131</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>161804.344374513</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>162712.1226334836</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>162712.1226334836</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>162311.8600694601</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>158828.6159694601</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>157222.5375136333</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>163667.0183206385</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>163667.0183206385</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>167084.3661762919</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>161979.7554762919</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>161822.7898762919</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>162083.1910762919</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>162083.1910762919</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>160686.3933762919</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>160319.0779762919</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>160492.5450762919</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>159522.6946762919</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>155211.5590620062</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>158258.9153620062</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>158258.9153620062</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>158309.9153620062</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>153585.5832620062</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>151320.6996620062</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>151320.6996620062</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>152084.0976620062</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>152261.2142046913</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>152470.3351046913</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>152148.1908046913</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>153971.6078046912</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>153971.6078046912</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>156093.5374046912</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>158912.068639552</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>152038.694439552</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>153355.294439552</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>153355.294439552</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>152356.516439552</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>158754.587284619</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>154861.0913956126</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>150242.0020956126</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>150932.2996956126</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>152053.2183219247</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>151228.9178219247</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>146599.8326219247</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>146105.9490219247</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>123017.2862219247</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>122166.4772219247</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>119151.4206119192</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>119151.4206119192</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>119148.3413119192</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>119119.1027119192</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>119141.2932119192</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>119140.2928518184</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>132021.3451435483</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>131639.9936435483</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>131625.2476435483</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>133857.8086435483</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>134356.2307435483</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>135348.3456435483</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>135348.3456435483</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>135598.4872435483</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>135598.4872435483</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>134941.3993435483</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>136379.4460435483</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>135070.4476375397</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>135235.4534375397</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>135235.4534375397</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>135235.4534375397</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>136239.8558375397</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>136241.8558375397</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>136039.1012375397</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>138310.0709375397</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>138310.0709375397</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>139063.7233375397</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>138799.9527375397</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>138799.9527375397</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>138622.8390375397</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>138886.3209375397</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>138877.2125375397</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>138085.6926375397</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>139034.0260375397</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>138854.2610375397</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>138995.0651375397</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>138873.7977375397</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>138777.3317375397</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>138669.7412375397</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>138512.3052375397</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>138491.1806375397</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>138184.3806375397</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>138619.8167375397</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>140952.5391086301</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>140038.4200086301</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
